--- a/source_data/protocols/Sanofi_NCT03637764_Oncology/Sanofi_NCT03637764_Oncology.xlsx
+++ b/source_data/protocols/Sanofi_NCT03637764_Oncology/Sanofi_NCT03637764_Oncology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/Sanofi_NCT03637764_Oncology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36142AAF-94F2-3F4D-8E95-C36F8C6135C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE88A3E-1DEB-9145-8889-902FBBB495F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="500" windowWidth="42380" windowHeight="25140" firstSheet="9" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="42380" windowHeight="25140" firstSheet="15" activeTab="25" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1751">
   <si>
     <t>Screening</t>
   </si>
@@ -14702,6 +14702,39 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>desciption</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>AMEND_5</t>
+  </si>
+  <si>
+    <t>Amendment 1</t>
+  </si>
+  <si>
+    <t>Amendment 2</t>
+  </si>
+  <si>
+    <t>Amendment 3</t>
+  </si>
+  <si>
+    <t>Amendment 4</t>
+  </si>
+  <si>
+    <t>Amendment 5</t>
   </si>
 </sst>
 </file>
@@ -14936,7 +14969,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -15098,6 +15131,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -23220,7 +23259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -23424,133 +23463,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="28" style="24" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="G2" s="44" t="s">
         <v>1413</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="45" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="45" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>1408</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="G3" s="44" t="s">
         <v>1411</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="45" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="45" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="G4" s="44" t="s">
         <v>1414</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="45" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="45" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="G5" s="44" t="s">
         <v>1412</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="45" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="45" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>1406</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="G6" s="44" t="s">
         <v>1413</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="45" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="45" t="s">
         <v>1498</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25110,28 +25195,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EBDD0B-581E-E545-8FB5-B8A06940B6D3}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="55"/>
+    <col min="1" max="1" width="8.83203125" style="55"/>
+    <col min="2" max="2" width="167.6640625" style="61" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -25140,43 +25227,43 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="61" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="61" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="61" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="61" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="61" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -25190,59 +25277,59 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="335" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="61" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="61" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="61" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="61" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="61" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -25251,59 +25338,59 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="61" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="61" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="61" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="61" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="61" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="61" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -25312,107 +25399,107 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="61" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="61" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="61" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="61" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="61" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="61" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="61" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="61" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="61" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="61" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="61" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="61" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="61" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -25421,211 +25508,211 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="61" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="61" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="61" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="61" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="61" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="61" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="61" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A48" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="61" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="61" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="61" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A51" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="61" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A52" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="61" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="61" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="61" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="61" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="61" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A57" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="61" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="61" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="61" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="61" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="61" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A62" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="61" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="61" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A64" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="61" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="61" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="61" t="s">
         <v>1562</v>
       </c>
     </row>
@@ -25634,27 +25721,27 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="61" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="61" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="61" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -25663,155 +25750,155 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="61" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="61" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A74" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="61" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A75" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="61" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="61" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="61" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="61" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="61" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="61" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A81" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="61" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="61" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="61" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="61" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="61" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="61" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="55" t="s">
         <v>1553</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="61" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="55" t="s">
         <v>1555</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="61" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A89" s="55" t="s">
         <v>1557</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="61" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="55" t="s">
         <v>1559</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="61" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -25825,179 +25912,179 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A93" s="55" t="s">
         <v>1564</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="61" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A94" s="55" t="s">
         <v>1566</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="61" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A95" s="55" t="s">
         <v>1568</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="61" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A96" s="55" t="s">
         <v>1570</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="61" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="55" t="s">
         <v>1571</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="61" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A98" s="55" t="s">
         <v>1573</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="61" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A99" s="55" t="s">
         <v>1575</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="61" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A100" s="55" t="s">
         <v>1577</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="61" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="55" t="s">
         <v>1579</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="61" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="55" t="s">
         <v>1581</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="61" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" s="55" t="s">
         <v>1583</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="61" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="s">
         <v>1585</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="61" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>1586</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="61" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="s">
         <v>1587</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="61" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="s">
         <v>1588</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="61" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="55" t="s">
         <v>1589</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="61" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="55" t="s">
         <v>1591</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="61" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="s">
         <v>1593</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="61" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="55" t="s">
         <v>1595</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="61" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="55" t="s">
         <v>1597</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="61" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A113" s="55" t="s">
         <v>1599</v>
       </c>
-      <c r="B113" s="55" t="s">
+      <c r="B113" s="61" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="55" t="s">
         <v>1601</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B114" s="61" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -30999,6 +31086,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="332ebed6bf1f21540ac8ed4139e2af2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9643d50ff51ef4e8f7efba950a0a6c6b" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -31205,15 +31301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
@@ -31232,6 +31319,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF2FA3F-B878-4318-8857-71A7C2287B4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31248,12 +31343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/protocols/Sanofi_NCT03637764_Oncology/Sanofi_NCT03637764_Oncology.xlsx
+++ b/source_data/protocols/Sanofi_NCT03637764_Oncology/Sanofi_NCT03637764_Oncology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/Sanofi_NCT03637764_Oncology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm_data/source_data/protocols/Sanofi_NCT03637764_Oncology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE88A3E-1DEB-9145-8889-902FBBB495F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574883A-9535-BB42-99EF-C590C572DE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="500" windowWidth="42380" windowHeight="25140" firstSheet="15" activeTab="25" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="9" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1751">
   <si>
     <t>Screening</t>
   </si>
@@ -4414,9 +4414,6 @@
 carcinoma (HCC), platinum-refractory recurrent/metastatic squamous cell carcinoma of the head and neck (SCCHN), platinumresistant/refractory epithelial ovarian cancer (EOC), or recurrent glioblastoma multiforme (GBM), and to determine the recommended Phase 2 dose (RP2D).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>Safety and tolerability of I with A</t>
   </si>
   <si>
@@ -4478,9 +4475,6 @@
     <t>&lt;p&gt;Phase 2: To assess response rate (RR) of isatuximab in combination with atezolizumab in participants with HCC or SCCHN or EOC.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>END6</t>
   </si>
   <si>
@@ -4534,9 +4528,6 @@
   </si>
   <si>
     <t>Exploratory Endpoint</t>
-  </si>
-  <si>
-    <t>Exploratory Objective</t>
   </si>
   <si>
     <t>END10</t>
@@ -14735,6 +14726,15 @@
   </si>
   <si>
     <t>Amendment 5</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Trial Exploratory Objective</t>
   </si>
 </sst>
 </file>
@@ -15123,6 +15123,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -15131,12 +15137,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -15758,7 +15758,7 @@
         <v>495</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -15909,7 +15909,7 @@
         <v>495</v>
       </c>
       <c r="O5" s="43" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="P5" s="43" t="s">
         <v>133</v>
@@ -16469,7 +16469,7 @@
         <v>680</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -16497,7 +16497,7 @@
         <v>690</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>1</v>
@@ -17666,8 +17666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B1533-9AA1-4D00-8CA1-8369FB269D7F}">
   <dimension ref="A1:AW32"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17675,9 +17675,12 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="12.33203125" customWidth="1"/>
+    <col min="4" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="20" width="12.33203125" customWidth="1"/>
     <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="12.33203125" customWidth="1"/>
+    <col min="22" max="28" width="12.33203125" customWidth="1"/>
+    <col min="29" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="33" width="12.33203125" customWidth="1"/>
     <col min="34" max="34" width="32" customWidth="1"/>
     <col min="35" max="49" width="12.33203125" customWidth="1"/>
   </cols>
@@ -19276,7 +19279,7 @@
         <v>902</v>
       </c>
       <c r="C18" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -19396,8 +19399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19405,8 +19408,9 @@
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="35" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="13.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.83203125" style="13" customWidth="1"/>
+    <col min="7" max="9" width="13.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -19518,7 +19522,7 @@
         <v>644</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -19813,7 +19817,7 @@
         <v>691</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -20129,7 +20133,7 @@
         <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>750</v>
@@ -20956,12 +20960,8 @@
       <c r="G53" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>661</v>
-      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -23034,13 +23034,13 @@
         <v>1418</v>
       </c>
       <c r="M2" s="53" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>1419</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>1420</v>
@@ -23087,13 +23087,13 @@
         <v>1426</v>
       </c>
       <c r="M3" s="53" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>1419</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>1427</v>
@@ -23140,13 +23140,13 @@
         <v>1436</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>1436</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>1427</v>
@@ -23485,7 +23485,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>100</v>
@@ -23511,11 +23511,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -23531,16 +23531,16 @@
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="45" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -23556,16 +23556,16 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="45" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -23581,16 +23581,16 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="45" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -23606,16 +23606,16 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="45" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="45" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -23644,8 +23644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="96" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23705,28 +23705,28 @@
     </row>
     <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
         <v>1447</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1448</v>
+        <v>1748</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -23735,15 +23735,15 @@
     <row r="3" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="D3" s="11"/>
       <c r="F3" s="9" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -23752,14 +23752,14 @@
     <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D4" s="11"/>
       <c r="F4" s="9" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -23767,23 +23767,23 @@
     </row>
     <row r="5" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>1458</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -23791,24 +23791,24 @@
     </row>
     <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>1461</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1462</v>
       </c>
       <c r="G6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -23816,25 +23816,25 @@
     </row>
     <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1468</v>
+        <v>1749</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -23842,24 +23842,24 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>1472</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>1474</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -23867,23 +23867,23 @@
     </row>
     <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>1478</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -23891,23 +23891,23 @@
     </row>
     <row r="10" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="I10" s="11" t="s">
         <v>1481</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>1483</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="9" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -23915,22 +23915,22 @@
     </row>
     <row r="11" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K11" s="40" t="s">
         <v>1484</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>1486</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -23941,15 +23941,15 @@
       <c r="C12" s="5"/>
       <c r="D12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -24322,7 +24322,7 @@
         <v>532</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -24350,7 +24350,7 @@
         <v>541</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -24364,7 +24364,7 @@
         <v>541</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -24378,7 +24378,7 @@
         <v>541</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -24547,7 +24547,7 @@
         <v>484</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>630</v>
@@ -25195,14 +25195,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EBDD0B-581E-E545-8FB5-B8A06940B6D3}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="55"/>
-    <col min="2" max="2" width="167.6640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="167.6640625" style="58" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="55"/>
   </cols>
   <sheetData>
@@ -25210,7 +25210,7 @@
       <c r="A1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>95</v>
       </c>
     </row>
@@ -25218,8 +25218,8 @@
       <c r="A2" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1711</v>
+      <c r="B2" s="58" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -25231,40 +25231,40 @@
       <c r="A4" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B4" s="58" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>1510</v>
+      <c r="B5" s="58" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>1713</v>
+      <c r="B6" s="58" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>1714</v>
+      <c r="B7" s="58" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>1715</v>
+      <c r="B8" s="58" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -25281,56 +25281,56 @@
       <c r="A11" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>1511</v>
+      <c r="B11" s="58" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>1512</v>
+      <c r="B12" s="58" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="304" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>1513</v>
+      <c r="B13" s="58" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>1514</v>
+      <c r="B14" s="58" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>1515</v>
+      <c r="B15" s="58" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>1516</v>
+      <c r="B16" s="58" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>1517</v>
+      <c r="B17" s="58" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -25342,56 +25342,56 @@
       <c r="A19" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>1518</v>
+      <c r="B19" s="58" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>1519</v>
+      <c r="B20" s="58" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>1520</v>
+      <c r="B21" s="58" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>1521</v>
+      <c r="B22" s="58" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="B23" s="61" t="s">
-        <v>1522</v>
+      <c r="B23" s="58" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>1716</v>
+      <c r="B24" s="58" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>1523</v>
+      <c r="B25" s="58" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -25403,104 +25403,104 @@
       <c r="A27" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>1717</v>
+      <c r="B27" s="58" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="61" t="s">
-        <v>1524</v>
+      <c r="B28" s="58" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="61" t="s">
-        <v>1525</v>
+      <c r="B29" s="58" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="61" t="s">
-        <v>1526</v>
+      <c r="B30" s="58" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>1527</v>
+      <c r="B31" s="58" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>1718</v>
+      <c r="B32" s="58" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="61" t="s">
-        <v>1528</v>
+      <c r="B33" s="58" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B34" s="61" t="s">
-        <v>1529</v>
+      <c r="B34" s="58" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="61" t="s">
-        <v>1530</v>
+      <c r="B35" s="58" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B36" s="61" t="s">
-        <v>1531</v>
+      <c r="B36" s="58" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="B37" s="61" t="s">
-        <v>1532</v>
+      <c r="B37" s="58" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B38" s="61" t="s">
-        <v>1533</v>
+      <c r="B38" s="58" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="B39" s="61" t="s">
-        <v>1534</v>
+      <c r="B39" s="58" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -25512,208 +25512,208 @@
       <c r="A41" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B41" s="61" t="s">
-        <v>1535</v>
+      <c r="B41" s="58" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="B42" s="61" t="s">
-        <v>1536</v>
+      <c r="B42" s="58" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>1537</v>
+      <c r="B43" s="58" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="61" t="s">
-        <v>1538</v>
+      <c r="B44" s="58" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B45" s="61" t="s">
-        <v>1539</v>
+      <c r="B45" s="58" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="61" t="s">
-        <v>1540</v>
+      <c r="B46" s="58" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B47" s="61" t="s">
-        <v>1719</v>
+      <c r="B47" s="58" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A48" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="61" t="s">
-        <v>1541</v>
+      <c r="B48" s="58" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="B49" s="61" t="s">
-        <v>1542</v>
+      <c r="B49" s="58" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="B50" s="61" t="s">
-        <v>1543</v>
+      <c r="B50" s="58" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A51" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B51" s="61" t="s">
-        <v>1544</v>
+      <c r="B51" s="58" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A52" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="B52" s="61" t="s">
-        <v>1545</v>
+      <c r="B52" s="58" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="61" t="s">
-        <v>1496</v>
+      <c r="B53" s="58" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="61" t="s">
-        <v>1546</v>
+      <c r="B54" s="58" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="B55" s="61" t="s">
-        <v>1547</v>
+      <c r="B55" s="58" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>1548</v>
+      <c r="B56" s="58" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A57" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="B57" s="61" t="s">
-        <v>1549</v>
+      <c r="B57" s="58" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="61" t="s">
-        <v>1720</v>
+      <c r="B58" s="58" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="61" t="s">
-        <v>1550</v>
+      <c r="B59" s="58" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="61" t="s">
-        <v>1551</v>
+      <c r="B60" s="58" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="B61" s="61" t="s">
-        <v>1552</v>
+      <c r="B61" s="58" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A62" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="61" t="s">
-        <v>1554</v>
+      <c r="B62" s="58" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="B63" s="61" t="s">
-        <v>1556</v>
+      <c r="B63" s="58" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A64" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="B64" s="61" t="s">
-        <v>1558</v>
+      <c r="B64" s="58" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="61" t="s">
-        <v>1560</v>
+      <c r="B65" s="58" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="61" t="s">
-        <v>1562</v>
+      <c r="B66" s="58" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -25725,24 +25725,24 @@
       <c r="A68" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="B68" s="61" t="s">
-        <v>1565</v>
+      <c r="B68" s="58" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="B69" s="61" t="s">
-        <v>1567</v>
+      <c r="B69" s="58" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="B70" s="61" t="s">
-        <v>1569</v>
+      <c r="B70" s="58" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -25754,338 +25754,338 @@
       <c r="A72" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="61" t="s">
-        <v>1572</v>
+      <c r="B72" s="58" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>1574</v>
+      <c r="B73" s="58" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A74" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B74" s="61" t="s">
-        <v>1576</v>
+      <c r="B74" s="58" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A75" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="61" t="s">
-        <v>1578</v>
+      <c r="B75" s="58" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="B76" s="61" t="s">
-        <v>1580</v>
+      <c r="B76" s="58" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="B77" s="61" t="s">
-        <v>1582</v>
+      <c r="B77" s="58" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="61" t="s">
-        <v>1584</v>
+      <c r="B78" s="58" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="B79" s="61" t="s">
-        <v>1721</v>
+      <c r="B79" s="58" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="B80" s="61" t="s">
-        <v>1590</v>
+      <c r="B80" s="58" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A81" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="B81" s="61" t="s">
-        <v>1592</v>
+      <c r="B81" s="58" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="B82" s="61" t="s">
-        <v>1594</v>
+      <c r="B82" s="58" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="B83" s="61" t="s">
-        <v>1596</v>
+      <c r="B83" s="58" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="B84" s="61" t="s">
-        <v>1598</v>
+      <c r="B84" s="58" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="B85" s="61" t="s">
-        <v>1600</v>
+      <c r="B85" s="58" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="B86" s="61" t="s">
-        <v>1602</v>
+      <c r="B86" s="58" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="55" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B87" s="61" t="s">
-        <v>1603</v>
+        <v>1550</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="55" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B88" s="61" t="s">
-        <v>1604</v>
+        <v>1552</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A89" s="55" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B89" s="61" t="s">
-        <v>1605</v>
+        <v>1554</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="55" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>1606</v>
+        <v>1556</v>
+      </c>
+      <c r="B90" s="58" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="55" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="55" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A93" s="55" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B93" s="61" t="s">
-        <v>1607</v>
+        <v>1561</v>
+      </c>
+      <c r="B93" s="58" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A94" s="55" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B94" s="61" t="s">
-        <v>1608</v>
+        <v>1563</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A95" s="55" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B95" s="61" t="s">
-        <v>1609</v>
+        <v>1565</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A96" s="55" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B96" s="61" t="s">
-        <v>1610</v>
+        <v>1567</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" s="55" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B97" s="61" t="s">
-        <v>1611</v>
+        <v>1568</v>
+      </c>
+      <c r="B97" s="58" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A98" s="55" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B98" s="61" t="s">
-        <v>1612</v>
+        <v>1570</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A99" s="55" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B99" s="61" t="s">
-        <v>1613</v>
+        <v>1572</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A100" s="55" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B100" s="61" t="s">
-        <v>1614</v>
+        <v>1574</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="55" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B101" s="61" t="s">
-        <v>1722</v>
+        <v>1576</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="55" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B102" s="61" t="s">
-        <v>1723</v>
+        <v>1578</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" s="55" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B103" s="61" t="s">
-        <v>1724</v>
+        <v>1580</v>
+      </c>
+      <c r="B103" s="58" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>1615</v>
+        <v>1582</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B105" s="61" t="s">
-        <v>1725</v>
+        <v>1583</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B106" s="61" t="s">
-        <v>1726</v>
+        <v>1584</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B107" s="61" t="s">
-        <v>1727</v>
+        <v>1585</v>
+      </c>
+      <c r="B107" s="58" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="55" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B108" s="61" t="s">
-        <v>1728</v>
+        <v>1586</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="55" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B109" s="61" t="s">
-        <v>1616</v>
+        <v>1588</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B110" s="61" t="s">
-        <v>1729</v>
+        <v>1590</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="55" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B111" s="61" t="s">
-        <v>1617</v>
+        <v>1592</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="55" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B112" s="61" t="s">
-        <v>1730</v>
+        <v>1594</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A113" s="55" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B113" s="61" t="s">
-        <v>1618</v>
+        <v>1596</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="55" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B114" s="61" t="s">
-        <v>1619</v>
+        <v>1598</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E4" s="55" t="b">
         <v>1</v>
@@ -26191,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E5" s="55" t="b">
         <v>1</v>
@@ -26211,7 +26211,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E6" s="55" t="b">
         <v>1</v>
@@ -26251,7 +26251,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E8" s="55" t="b">
         <v>1</v>
@@ -26271,7 +26271,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E9" s="55" t="b">
         <v>1</v>
@@ -26305,13 +26305,13 @@
         <v>357</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C11" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E11" s="55" t="b">
         <v>1</v>
@@ -26325,13 +26325,13 @@
         <v>358</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C12" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="E12" s="55" t="b">
         <v>1</v>
@@ -26345,13 +26345,13 @@
         <v>359</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C13" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E13" s="55" t="b">
         <v>1</v>
@@ -26365,13 +26365,13 @@
         <v>360</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C14" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E14" s="55" t="b">
         <v>1</v>
@@ -26391,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E15" s="55" t="b">
         <v>1</v>
@@ -26411,7 +26411,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E16" s="55" t="b">
         <v>1</v>
@@ -26425,13 +26425,13 @@
         <v>363</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="C17" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E17" s="55" t="b">
         <v>1</v>
@@ -26465,13 +26465,13 @@
         <v>365</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C19" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E19" s="55" t="b">
         <v>1</v>
@@ -26485,13 +26485,13 @@
         <v>366</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C20" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E20" s="55" t="b">
         <v>1</v>
@@ -26531,7 +26531,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E22" s="55" t="b">
         <v>1</v>
@@ -26571,7 +26571,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E24" s="55" t="b">
         <v>1</v>
@@ -26591,7 +26591,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E25" s="55" t="b">
         <v>1</v>
@@ -26611,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="E26" s="55" t="b">
         <v>1</v>
@@ -26631,7 +26631,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E27" s="55" t="b">
         <v>1</v>
@@ -26651,7 +26651,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E28" s="55" t="b">
         <v>1</v>
@@ -26671,7 +26671,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="E29" s="55" t="b">
         <v>1</v>
@@ -26691,7 +26691,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E30" s="55" t="b">
         <v>1</v>
@@ -26711,7 +26711,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E31" s="55" t="b">
         <v>1</v>
@@ -26731,7 +26731,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E32" s="55" t="b">
         <v>1</v>
@@ -26751,7 +26751,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E33" s="55" t="b">
         <v>1</v>
@@ -26771,7 +26771,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E34" s="55" t="b">
         <v>1</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E35" s="55" t="b">
         <v>1</v>
@@ -26811,7 +26811,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E36" s="55" t="b">
         <v>1</v>
@@ -26831,7 +26831,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E37" s="55" t="b">
         <v>1</v>
@@ -26871,7 +26871,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E39" s="55" t="b">
         <v>1</v>
@@ -26891,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E40" s="55" t="b">
         <v>1</v>
@@ -27011,7 +27011,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E46" s="55" t="b">
         <v>1</v>
@@ -27031,7 +27031,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E47" s="55" t="b">
         <v>1</v>
@@ -27051,7 +27051,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E48" s="55" t="b">
         <v>1</v>
@@ -27071,7 +27071,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E49" s="55" t="b">
         <v>1</v>
@@ -27085,13 +27085,13 @@
         <v>396</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C50" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E50" s="55" t="b">
         <v>1</v>
@@ -27111,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E51" s="55" t="b">
         <v>1</v>
@@ -27131,7 +27131,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E52" s="55" t="b">
         <v>1</v>
@@ -27151,7 +27151,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E53" s="55" t="b">
         <v>1</v>
@@ -27251,7 +27251,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E58" s="55" t="b">
         <v>1</v>
@@ -27291,7 +27291,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E60" s="55" t="b">
         <v>1</v>
@@ -27371,7 +27371,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E64" s="55" t="b">
         <v>1</v>
@@ -27411,7 +27411,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E66" s="55" t="b">
         <v>1</v>
@@ -27431,7 +27431,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E67" s="55" t="b">
         <v>1</v>
@@ -27525,13 +27525,13 @@
         <v>418</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C72" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E72" s="55" t="b">
         <v>1</v>
@@ -27545,13 +27545,13 @@
         <v>419</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C73" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E73" s="55" t="b">
         <v>1</v>
@@ -27571,7 +27571,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E74" s="55" t="b">
         <v>1</v>
@@ -27591,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E75" s="55" t="b">
         <v>1</v>
@@ -27611,7 +27611,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E76" s="55" t="b">
         <v>1</v>
@@ -27691,7 +27691,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E80" s="55" t="b">
         <v>1</v>
@@ -27711,7 +27711,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="55" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E81" s="55" t="b">
         <v>1</v>
@@ -27745,13 +27745,13 @@
         <v>1177</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C83" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E83" s="55" t="b">
         <v>1</v>
@@ -27785,13 +27785,13 @@
         <v>1179</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C85" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E85" s="55" t="b">
         <v>1</v>
@@ -27805,13 +27805,13 @@
         <v>1180</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C86" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E86" s="55" t="b">
         <v>1</v>
@@ -27825,19 +27825,19 @@
         <v>1181</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C87" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E87" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F87" s="55" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -27857,7 +27857,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="55" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -27865,19 +27865,19 @@
         <v>1183</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C89" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E89" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F89" s="55" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -27891,13 +27891,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E90" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F90" s="55" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -27911,13 +27911,13 @@
         <v>1</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E91" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F91" s="55" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -27931,13 +27931,13 @@
         <v>1</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E92" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F92" s="55" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -27957,7 +27957,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="55" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -27977,7 +27977,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="55" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -27997,7 +27997,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="55" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -28017,7 +28017,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="55" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -28037,7 +28037,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="55" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -28057,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="55" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -28077,7 +28077,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="55" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -28097,7 +28097,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="55" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -28111,13 +28111,13 @@
         <v>1</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E101" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F101" s="55" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -28131,13 +28131,13 @@
         <v>1</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E102" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F102" s="55" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -28151,13 +28151,13 @@
         <v>1</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E103" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F103" s="55" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -28171,13 +28171,13 @@
         <v>1</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E104" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F104" s="55" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -28191,13 +28191,13 @@
         <v>1</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E105" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F105" s="55" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -28211,13 +28211,13 @@
         <v>1</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E106" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F106" s="55" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -28231,13 +28231,13 @@
         <v>1</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E107" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F107" s="55" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -28251,13 +28251,13 @@
         <v>1</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E108" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F108" s="55" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -28265,19 +28265,19 @@
         <v>441</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C109" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E109" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F109" s="55" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -28285,19 +28285,19 @@
         <v>442</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C110" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E110" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F110" s="55" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -28305,19 +28305,19 @@
         <v>443</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C111" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E111" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -28331,13 +28331,13 @@
         <v>1</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E112" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -28345,19 +28345,19 @@
         <v>445</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C113" s="55" t="b">
         <v>1</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E113" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -28371,13 +28371,13 @@
         <v>1</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E114" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -28444,7 +28444,7 @@
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -28493,10 +28493,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C2" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D2" t="s">
         <v>559</v>
@@ -28505,7 +28505,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -28525,7 +28525,7 @@
         <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -28573,13 +28573,13 @@
         <v>570</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>113</v>
@@ -28596,7 +28596,7 @@
         <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>47</v>
@@ -28627,7 +28627,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>9</v>
@@ -28635,7 +28635,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>560</v>
@@ -28654,7 +28654,7 @@
         <v>544</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -28667,7 +28667,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B6" t="s">
         <v>571</v>
@@ -28701,7 +28701,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>93</v>
@@ -28713,7 +28713,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
@@ -28734,7 +28734,7 @@
         <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -28769,173 +28769,173 @@
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B7" s="57" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="59" t="s">
         <v>856</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
